--- a/VITM/VITM_Quick_Test_Checklist.xlsx
+++ b/VITM/VITM_Quick_Test_Checklist.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manual Testing Projects\VITM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0AC864-A5FE-4162-A539-18BA0D449E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D251DBFE-E451-4E1C-BA8B-D1349195511E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testcase_scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="bug report" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="166">
   <si>
     <t>Module</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>Screenshots</t>
-  </si>
-  <si>
-    <t>screenshots\Screenshot 2025-05-12 220647.png</t>
   </si>
   <si>
     <t>low</t>
@@ -478,9 +475,6 @@
     <t>Actual result data should show after entering valid data</t>
   </si>
   <si>
-    <t>screenshots\Screenshot 2025-05-12 230041.png</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -505,9 +499,6 @@
     <t>Instead of downloading pdf it's showing error</t>
   </si>
   <si>
-    <t>screenshots\Screenshot 2025-05-12 232347.png</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -532,9 +523,6 @@
     <t>Not getting verified</t>
   </si>
   <si>
-    <t>screenshots\Screenshot 2025-05-12 234108.png</t>
-  </si>
-  <si>
     <t>1. Open the URL: https://vitm.tech/
 2. Mouse hover to the Examination tab
 3. Select the Syllabus
@@ -545,9 +533,6 @@
   </si>
   <si>
     <t>Not showing the data if I change continuously</t>
-  </si>
-  <si>
-    <t>screenshots\Screenshot 2025-05-13 000006.png</t>
   </si>
   <si>
     <t>After selecting the correct data, it shows the data, but after changing many time it lost the data or failed to fetch</t>
@@ -624,8 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -633,7 +617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -996,15 +979,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="C3:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.77734375" bestFit="1" customWidth="1"/>
@@ -1013,22 +995,20 @@
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
@@ -1036,380 +1016,380 @@
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1425,494 +1405,477 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697F92D1-7C64-430E-B226-957050804F4B}">
   <dimension ref="B2:R16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="5"/>
-    <col min="3" max="3" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="50.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="5"/>
-    <col min="18" max="18" width="11.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="50.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="3"/>
+    <col min="18" max="18" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="2:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="2:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="2:18" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="2:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="2:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="2:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="2:18" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="G7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="2:18" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="2:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="2:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="L8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="2:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="2:18" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{13BE6AEC-DEC5-4889-9E3E-D6C557EBDA39}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{038107F9-53DF-4F5A-BE8C-15F03E41EE09}"/>
-    <hyperlink ref="J7" r:id="rId3" xr:uid="{85A0E9DE-A242-47F7-8E5B-BCFDD2000DFC}"/>
-    <hyperlink ref="J8" r:id="rId4" xr:uid="{3023C978-F4CB-4A6E-9E6E-FD60C3162BB6}"/>
-    <hyperlink ref="J9" r:id="rId5" xr:uid="{17448C1A-5A80-48B3-96B4-54E38077D66D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>